--- a/tests/rotor2/Rotor2_Thrust_Constant_Calculation.xlsx
+++ b/tests/rotor2/Rotor2_Thrust_Constant_Calculation.xlsx
@@ -5,22 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\repos\rx-2\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\repos\rx-2\tests\rotor2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD25F3C-6001-48FD-B9CA-6722C2932E98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF633723-192D-4E62-A340-340561C74DFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotor2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Force {N} (mean)</t>
   </si>
@@ -44,6 +52,12 @@
   </si>
   <si>
     <t>Rotor 2 Thrust Test 5</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Approx</t>
   </si>
 </sst>
 </file>
@@ -607,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -624,6 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,8 +782,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -785,16 +800,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -848,263 +873,121 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Rotor2!$B$3:$B$37</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="35"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.53896752812773E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2354415362426799E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.9701723141310301E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.1635039941137799E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2.9824045403172999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.9753372210469399E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.03109548284183E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>8.6450472587061792E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>4.7955571543932797E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3.72191235508674E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3.8675437601715698E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>4.3540664598558897E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>3.0689446154389202E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>4.3407493895821499E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1.4244112357114499E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>8.5962047929365307E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>5.2875225518991403E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.24044038543341301</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>6.4910870065279194E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>5.3061533296630901E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>4.1243819313673498E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2.56289310206874E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>6.58626960945429E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>6.2683415081788305E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>7.5714143850058396E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>6.6163672653105896E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.125806869530453</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0.13813037319865601</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0.113605967226522</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>0.13743515217232999</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0.158283556349124</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0.29679693571974602</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$C$3:$C$37</c:f>
+              <c:f>Rotor2!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$A$3:$A$37</c:f>
               <c:numCache>
@@ -1217,7 +1100,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1240,132 +1123,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$C$3:$C$37</c:f>
+              <c:f>Rotor2!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$B$3:$B$37</c:f>
               <c:numCache>
@@ -1478,11 +1371,274 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E831-4D93-B2B6-DA66E9E4074A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1.2857x2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rotor2!$D$3:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rotor2!$C$3:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2856999999997398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1427999999995068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11571299999999234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2057119999999894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32142499999998747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46285199999998439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62999299999998282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8228479999999796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0414169999999763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2856999999999748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5556969999999715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8514079999999706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1728329999999669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5199719999999628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8928249999999625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2913919999999584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.715672999999958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1656679999999549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6413769999999497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1427999999999505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6699369999999458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2227879999999463</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8013529999999411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4056319999999376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0356249999999374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6913319999999334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3727529999999337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.079887999999929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.812736999999851</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.571299999999843</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.355576999999842</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.165567999999833</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.001272999999825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.862691999999832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E572-43AF-91E5-8AA20195D09F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1494,11 +1650,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="134086735"/>
         <c:axId val="71346895"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="134086735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1507,7 +1662,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1544,11 +1699,9 @@
         </c:txPr>
         <c:crossAx val="71346895"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="71346895"/>
         <c:scaling>
@@ -1603,7 +1756,7 @@
         </c:txPr>
         <c:crossAx val="134086735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1767,15 +1920,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$G$2</c:f>
+              <c:f>Rotor2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1785,16 +1938,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -1814,8 +1977,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.37595174690096206"/>
-                  <c:y val="-2.376179558167751E-2"/>
+                  <c:x val="-0.23060356056774647"/>
+                  <c:y val="-3.1533974154070984E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1848,123 +2011,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$I$3:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$G$3:$G$37</c:f>
+              <c:f>Rotor2!$J$3:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1972,6 +2021,120 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rotor2!$H$3:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -2075,7 +2238,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2088,7 +2251,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$H$2</c:f>
+              <c:f>Rotor2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2098,245 +2261,255 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rotor2!$J$3:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$I$3:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>4.8936048492959202E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>5.1041778553403997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>3.9403446282620502E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>6.1558701125109302E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>5.0262468995003499E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>4.4426165831931898E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>6.9585237393845903E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>6.6253103204382199E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>2.2124052165245899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>5.9515588404701898E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>4.99973683517968E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>2.9379548919900699E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>3.8234043799513999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>4.9587774384630898E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>2.71642179501289E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>6.5153664517047599E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>0.17967441313899399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>3.9400106866005202E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>4.13712333314879E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>8.8638829557159404E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>6.88629455016114E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>4.2036951163920998E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>4.1861299801279901E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>7.10374252733985E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>5.2405303066327798E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>9.4501461976995105E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>8.0262726487192404E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>0.222210781869258</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>0.16010194120917901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>0.18307605552136799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>0.106444944998761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$H$3:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8936048492959202E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1041778553403997E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9403446282620502E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1558701125109302E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0262468995003499E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4426165831931898E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9585237393845903E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6253103204382199E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2124052165245899E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.9515588404701898E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.99973683517968E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.9379548919900699E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.8234043799513999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9587774384630898E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.71642179501289E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.5153664517047599E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.17967441313899399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.9400106866005202E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.13712333314879E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.8638829557159404E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.88629455016114E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.2036951163920998E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.1861299801279901E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.10374252733985E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.2405303066327798E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.4501461976995105E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.0262726487192404E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.222210781869258</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.16010194120917901</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18307605552136799</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.106444944998761</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2352,11 +2525,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="243341903"/>
         <c:axId val="149250335"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="243341903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2402,11 +2574,8 @@
         </c:txPr>
         <c:crossAx val="149250335"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="149250335"/>
         <c:scaling>
@@ -2461,7 +2630,7 @@
         </c:txPr>
         <c:crossAx val="243341903"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2618,15 +2787,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$D$2</c:f>
+              <c:f>Rotor2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2636,16 +2805,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2699,123 +2878,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$F$3:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$D$3:$D$37</c:f>
+              <c:f>Rotor2!$G$3:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2823,6 +2888,120 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rotor2!$E$3:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -2926,7 +3105,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2939,7 +3118,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$E$2</c:f>
+              <c:f>Rotor2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2949,245 +3128,255 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rotor2!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>3.0779350562554599E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>5.7124057057748E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>8.2078268166812206E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>7.6777189594991304E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>6.04805318829299E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>5.1041778553403997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>8.8905627079031296E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>2.07491280729931E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>2.6832815729997399E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>2.46234804500437E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.9466570535691501E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>3.7455236440878399E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>4.7417518414944203E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>2.47301222675591E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>0.187068802428692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>3.7850119933064599E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>4.9193495504995202E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>3.2650461429801401E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>6.1121104977611598E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>5.8902238363329702E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>8.4142735871850394E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>3.6774562146307602E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>3.8811284305903603E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>3.5777087639996499E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>6.1942248145051497E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>0.11128909721035</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>0.146009192212429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>0.144881076458554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>0.13984954321284701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>0.22328881462545699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>0.12922440701516399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$E$3:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0779350562554599E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7124057057748E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2078268166812206E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6777189594991304E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.04805318829299E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1041778553403997E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.8905627079031296E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.07491280729931E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.6832815729997399E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.46234804500437E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9466570535691501E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.7455236440878399E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7417518414944203E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.47301222675591E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.187068802428692</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7850119933064599E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.9193495504995202E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2650461429801401E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.1121104977611598E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.8902238363329702E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.4142735871850394E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.6774562146307602E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8811284305903603E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5777087639996499E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.1942248145051497E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.11128909721035</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.146009192212429</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.144881076458554</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.13984954321284701</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.22328881462545699</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.12922440701516399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3203,11 +3392,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="134076335"/>
         <c:axId val="149268639"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="134076335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3253,11 +3441,8 @@
         </c:txPr>
         <c:crossAx val="149268639"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="149268639"/>
         <c:scaling>
@@ -3312,7 +3497,7 @@
         </c:txPr>
         <c:crossAx val="134076335"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3476,15 +3661,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$J$2</c:f>
+              <c:f>Rotor2!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3494,16 +3679,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -3557,123 +3752,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$L$3:$L$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$J$3:$J$37</c:f>
+              <c:f>Rotor2!$M$3:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3681,6 +3762,120 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rotor2!$K$3:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -3784,7 +3979,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3797,7 +3992,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$K$2</c:f>
+              <c:f>Rotor2!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3807,245 +4002,255 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rotor2!$M$3:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$L$3:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>1.03109548284183E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>1.8637822325921798E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>8.2557794748189407E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>5.0262468995003204E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>4.8936048492959298E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>5.8714294861239797E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>8.5069630922340097E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>9.6979379251467601E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.38031270293898E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>2.6536965280826399E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.5719582155957399E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>4.2870674555482602E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>4.3781755392665003E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>2.05452004896008E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>2.6675437154213999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>4.9040799340956898E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>5.5047826095993201E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>9.4728142875449603E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>4.7195004195917198E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>7.0487027548560802E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>3.1689280937184303E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>6.9969918348417495E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>7.1627692380736796E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>8.7545476903811204E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>8.6578227480609601E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>8.2159985138111805E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>7.4931547709260998E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>0.133794815413673</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>7.0814806658673193E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>0.29954526940189202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>0.14027322961765801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$K$3:$K$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.03109548284183E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8637822325921798E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2557794748189407E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0262468995003204E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8936048492959298E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8714294861239797E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.5069630922340097E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6979379251467601E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.38031270293898E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6536965280826399E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5719582155957399E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2870674555482602E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.3781755392665003E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.05452004896008E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.6675437154213999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9040799340956898E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.5047826095993201E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.4728142875449603E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.7195004195917198E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0487027548560802E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1689280937184303E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.9969918348417495E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.1627692380736796E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.7545476903811204E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.6578227480609601E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.2159985138111805E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.4931547709260998E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.133794815413673</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.0814806658673193E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.29954526940189202</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.14027322961765801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4061,11 +4266,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="243389103"/>
         <c:axId val="62806815"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="243389103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4111,11 +4315,8 @@
         </c:txPr>
         <c:crossAx val="62806815"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="62806815"/>
         <c:scaling>
@@ -4170,7 +4371,7 @@
         </c:txPr>
         <c:crossAx val="243389103"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4342,15 +4543,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$M$2</c:f>
+              <c:f>Rotor2!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4360,16 +4561,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -4423,123 +4634,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$O$3:$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$M$3:$M$37</c:f>
+              <c:f>Rotor2!$P$3:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4547,6 +4644,120 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rotor2!$N$3:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -4650,7 +4861,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4663,7 +4874,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$N$2</c:f>
+              <c:f>Rotor2!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4673,245 +4884,255 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rotor2!$P$3:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999989875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59999999999998987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69999999999999041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1999999999999797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999999999999794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$O$3:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>7.8806892565241107E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>1.70061908232205E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>4.1039134083406103E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>4.7016234598162496E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>2.2682012349227901E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>4.3395367203617898E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>3.7735227154756197E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.07115284672759E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>5.4376852660513099E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.5525869752736799E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.9049796241485201E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>2.8704483420208999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>5.32397753959436E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>2.14230569345518E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>7.5253956007221401E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>4.2534815461170002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>6.9847578415620906E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>7.8900336868068799E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>3.4351128074635397E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>6.8525830704079804E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>3.6346287727620101E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>3.0192365713345801E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>0.20793407356027099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>5.3751376971346201E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>6.1293083665803202E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>0.120109599072986</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>0.122940935754575</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>0.29725896914448502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>7.0133331665666196E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>0.20157537443583501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>0.20251315746728199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rotor2!$N$3:$N$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8806892565241107E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.70061908232205E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1039134083406103E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7016234598162496E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2682012349227901E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3395367203617898E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7735227154756197E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.07115284672759E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4376852660513099E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5525869752736799E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9049796241485201E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8704483420208999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.32397753959436E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.14230569345518E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.5253956007221401E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2534815461170002E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9847578415620906E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8900336868068799E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4351128074635397E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.8525830704079804E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.6346287727620101E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.0192365713345801E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.20793407356027099</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.3751376971346201E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.1293083665803202E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.120109599072986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.122940935754575</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.29725896914448502</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.0133331665666196E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20157537443583501</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.20251315746728199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4927,11 +5148,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="247911263"/>
         <c:axId val="251369759"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="247911263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4977,11 +5197,8 @@
         </c:txPr>
         <c:crossAx val="251369759"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="251369759"/>
         <c:scaling>
@@ -5036,7 +5253,7 @@
         </c:txPr>
         <c:crossAx val="247911263"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7906,15 +8123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7941,16 +8158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7977,13 +8194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -8013,13 +8230,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
@@ -8049,13 +8266,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8383,1740 +8600,2173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <f>1.2857*D3*D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3">
+        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3">
+        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3">
+        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>Q3-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>5.0999999999999899</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C37" si="0">1.2857*D4*D4</f>
+        <v>1.2856999999997398E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D37" si="1">Q4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>5.0999999999999899</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G37" si="2">Q4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.0999999999999899</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f t="shared" ref="J4:J37" si="3">Q4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.0999999999999899</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M37" si="4">Q4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P37" si="5">Q4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
+      </c>
+      <c r="Q4">
         <v>5.0999999999999899</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>5.1999999999999904</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1427999999995068E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999041</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>5.1999999999999904</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.1999999999999904</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.1999999999999904</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999041</v>
+      </c>
+      <c r="Q5">
         <v>5.1999999999999904</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6" s="2">
         <v>1.53896752812773E-2</v>
       </c>
-      <c r="C6" s="3">
-        <v>5.2999999999999901</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11571299999999234</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999005</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>5.2999999999999901</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.2999999999999901</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.2999999999999901</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.29999999999999005</v>
+      </c>
+      <c r="Q6">
         <v>5.2999999999999901</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.14499999999999999</v>
       </c>
       <c r="B7" s="2">
         <v>1.2354415362426799E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2057119999999894</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.0779350562554599E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="H7">
+        <v>0.1065</v>
+      </c>
+      <c r="I7">
+        <v>4.8936048492959202E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="K7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.03109548284183E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="N7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O7">
+        <v>7.8806892565241107E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="Q7">
         <v>5.3999999999999897</v>
       </c>
-      <c r="D7" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.0779350562554599E-3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.3999999999999897</v>
-      </c>
-      <c r="G7">
-        <v>0.1065</v>
-      </c>
-      <c r="H7">
-        <v>4.8936048492959202E-3</v>
-      </c>
-      <c r="I7">
-        <v>5.3999999999999897</v>
-      </c>
-      <c r="J7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="K7">
-        <v>1.03109548284183E-2</v>
-      </c>
-      <c r="L7">
-        <v>5.3999999999999897</v>
-      </c>
-      <c r="M7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N7">
-        <v>7.8806892565241107E-3</v>
-      </c>
-      <c r="O7">
-        <v>5.3999999999999897</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.26750000000000002</v>
       </c>
       <c r="B8" s="2">
         <v>1.9701723141310301E-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32142499999998747</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.7124057057748E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="H8">
+        <v>0.2155</v>
+      </c>
+      <c r="I8">
+        <v>5.1041778553403997E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="K8">
+        <v>0.19</v>
+      </c>
+      <c r="L8">
+        <v>1.8637822325921798E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="N8">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="O8">
+        <v>1.70061908232205E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="Q8">
         <v>5.4999999999999902</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5.7124057057748E-3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.4999999999999902</v>
-      </c>
-      <c r="G8">
-        <v>0.2155</v>
-      </c>
-      <c r="H8">
-        <v>5.1041778553403997E-3</v>
-      </c>
-      <c r="I8">
-        <v>5.4999999999999902</v>
-      </c>
-      <c r="J8">
-        <v>0.19</v>
-      </c>
-      <c r="K8">
-        <v>1.8637822325921798E-2</v>
-      </c>
-      <c r="L8">
-        <v>5.4999999999999902</v>
-      </c>
-      <c r="M8">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="N8">
-        <v>1.70061908232205E-2</v>
-      </c>
-      <c r="O8">
-        <v>5.4999999999999902</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.35249999999999898</v>
       </c>
       <c r="B9" s="2">
         <v>7.1635039941137799E-3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46285199999998439</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.33599999999999902</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.2078268166812206E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="H9">
+        <v>0.34949999999999898</v>
+      </c>
+      <c r="I9">
+        <v>3.9403446282620502E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="K9">
+        <v>0.35049999999999898</v>
+      </c>
+      <c r="L9">
+        <v>8.2557794748189407E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="N9">
+        <v>0.33799999999999902</v>
+      </c>
+      <c r="O9">
+        <v>4.1039134083406103E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="Q9">
         <v>5.5999999999999899</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.33599999999999902</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.2078268166812206E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.5999999999999899</v>
-      </c>
-      <c r="G9">
-        <v>0.34949999999999898</v>
-      </c>
-      <c r="H9">
-        <v>3.9403446282620502E-3</v>
-      </c>
-      <c r="I9">
-        <v>5.5999999999999899</v>
-      </c>
-      <c r="J9">
-        <v>0.35049999999999898</v>
-      </c>
-      <c r="K9">
-        <v>8.2557794748189407E-3</v>
-      </c>
-      <c r="L9">
-        <v>5.5999999999999899</v>
-      </c>
-      <c r="M9">
-        <v>0.33799999999999902</v>
-      </c>
-      <c r="N9">
-        <v>4.1039134083406103E-3</v>
-      </c>
-      <c r="O9">
-        <v>5.5999999999999899</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.495</v>
       </c>
       <c r="B10" s="2">
         <v>2.9824045403172999E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62999299999998282</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.6777189594991304E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="H10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I10">
+        <v>6.1558701125109302E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="K10">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="L10">
+        <v>5.0262468995003204E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="N10">
+        <v>0.46699999999999903</v>
+      </c>
+      <c r="O10">
+        <v>4.7016234598162496E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="Q10">
         <v>5.6999999999999904</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7.6777189594991304E-3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.6999999999999904</v>
-      </c>
-      <c r="G10">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="H10">
-        <v>6.1558701125109302E-3</v>
-      </c>
-      <c r="I10">
-        <v>5.6999999999999904</v>
-      </c>
-      <c r="J10">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="K10">
-        <v>5.0262468995003204E-3</v>
-      </c>
-      <c r="L10">
-        <v>5.6999999999999904</v>
-      </c>
-      <c r="M10">
-        <v>0.46699999999999903</v>
-      </c>
-      <c r="N10">
-        <v>4.7016234598162496E-3</v>
-      </c>
-      <c r="O10">
-        <v>5.6999999999999904</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.66700000000000004</v>
       </c>
       <c r="B11" s="2">
         <v>2.9753372210469399E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8228479999999796</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.04805318829299E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="H11">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="I11">
+        <v>5.0262468995003499E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="K11">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="L11">
+        <v>4.8936048492959298E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="N11">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="O11">
+        <v>2.2682012349227901E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="Q11">
         <v>5.7999999999999901</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.04805318829299E-3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.7999999999999901</v>
-      </c>
-      <c r="G11">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="H11">
-        <v>5.0262468995003499E-3</v>
-      </c>
-      <c r="I11">
-        <v>5.7999999999999901</v>
-      </c>
-      <c r="J11">
-        <v>0.62849999999999995</v>
-      </c>
-      <c r="K11">
-        <v>4.8936048492959298E-3</v>
-      </c>
-      <c r="L11">
-        <v>5.7999999999999901</v>
-      </c>
-      <c r="M11">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="N11">
-        <v>2.2682012349227901E-2</v>
-      </c>
-      <c r="O11">
-        <v>5.7999999999999901</v>
-      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.84699999999999898</v>
       </c>
       <c r="B12" s="2">
         <v>1.03109548284183E-2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0414169999999763</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.82449999999999901</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.1041778553403997E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="H12">
+        <v>0.82749999999999901</v>
+      </c>
+      <c r="I12">
+        <v>4.4426165831931898E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="K12">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="L12">
+        <v>5.8714294861239797E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="N12">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="O12">
+        <v>4.3395367203617898E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="Q12">
         <v>5.8999999999999897</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.82449999999999901</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5.1041778553403997E-3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.8999999999999897</v>
-      </c>
-      <c r="G12">
-        <v>0.82749999999999901</v>
-      </c>
-      <c r="H12">
-        <v>4.4426165831931898E-3</v>
-      </c>
-      <c r="I12">
-        <v>5.8999999999999897</v>
-      </c>
-      <c r="J12">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="K12">
-        <v>5.8714294861239797E-3</v>
-      </c>
-      <c r="L12">
-        <v>5.8999999999999897</v>
-      </c>
-      <c r="M12">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="N12">
-        <v>4.3395367203617898E-2</v>
-      </c>
-      <c r="O12">
-        <v>5.8999999999999897</v>
-      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.073</v>
       </c>
       <c r="B13" s="2">
         <v>8.6450472587061792E-3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2856999999999748</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.101</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.8905627079031296E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="H13">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="I13">
+        <v>6.9585237393845903E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="K13">
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="L13">
+        <v>8.5069630922340097E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="N13">
+        <v>1.0485</v>
+      </c>
+      <c r="O13">
+        <v>3.7735227154756197E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="Q13">
         <v>5.9999999999999902</v>
       </c>
-      <c r="D13" s="1">
-        <v>1.101</v>
-      </c>
-      <c r="E13" s="2">
-        <v>8.8905627079031296E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5.9999999999999902</v>
-      </c>
-      <c r="G13">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="H13">
-        <v>6.9585237393845903E-3</v>
-      </c>
-      <c r="I13">
-        <v>5.9999999999999902</v>
-      </c>
-      <c r="J13">
-        <v>1.0375000000000001</v>
-      </c>
-      <c r="K13">
-        <v>8.5069630922340097E-3</v>
-      </c>
-      <c r="L13">
-        <v>5.9999999999999902</v>
-      </c>
-      <c r="M13">
-        <v>1.0485</v>
-      </c>
-      <c r="N13">
-        <v>3.7735227154756197E-2</v>
-      </c>
-      <c r="O13">
-        <v>5.9999999999999902</v>
-      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.4244999999999901</v>
       </c>
       <c r="B14" s="2">
         <v>4.7955571543932797E-2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5556969999999715</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.359</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.07491280729931E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="H14">
+        <v>1.45</v>
+      </c>
+      <c r="I14">
+        <v>6.6253103204382199E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="K14">
+        <v>1.41949999999999</v>
+      </c>
+      <c r="L14">
+        <v>9.6979379251467601E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="N14">
+        <v>1.3089999999999899</v>
+      </c>
+      <c r="O14">
+        <v>1.07115284672759E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="Q14">
         <v>6.0999999999999899</v>
       </c>
-      <c r="D14" s="1">
-        <v>1.359</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.07491280729931E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6.0999999999999899</v>
-      </c>
-      <c r="G14">
-        <v>1.45</v>
-      </c>
-      <c r="H14">
-        <v>6.6253103204382199E-2</v>
-      </c>
-      <c r="I14">
-        <v>6.0999999999999899</v>
-      </c>
-      <c r="J14">
-        <v>1.41949999999999</v>
-      </c>
-      <c r="K14">
-        <v>9.6979379251467601E-2</v>
-      </c>
-      <c r="L14">
-        <v>6.0999999999999899</v>
-      </c>
-      <c r="M14">
-        <v>1.3089999999999899</v>
-      </c>
-      <c r="N14">
-        <v>1.07115284672759E-2</v>
-      </c>
-      <c r="O14">
-        <v>6.0999999999999899</v>
-      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.77199999999999</v>
       </c>
       <c r="B15" s="2">
         <v>3.72191235508674E-2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8514079999999706</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.6539999999999899</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.6832815729997399E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="H15">
+        <v>1.635</v>
+      </c>
+      <c r="I15">
+        <v>2.2124052165245899E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="K15">
+        <v>1.63299999999999</v>
+      </c>
+      <c r="L15">
+        <v>1.38031270293898E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="N15">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="O15">
+        <v>5.4376852660513099E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="Q15">
         <v>6.1999999999999904</v>
       </c>
-      <c r="D15" s="1">
-        <v>1.6539999999999899</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.6832815729997399E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.1999999999999904</v>
-      </c>
-      <c r="G15">
-        <v>1.635</v>
-      </c>
-      <c r="H15">
-        <v>2.2124052165245899E-2</v>
-      </c>
-      <c r="I15">
-        <v>6.1999999999999904</v>
-      </c>
-      <c r="J15">
-        <v>1.63299999999999</v>
-      </c>
-      <c r="K15">
-        <v>1.38031270293898E-2</v>
-      </c>
-      <c r="L15">
-        <v>6.1999999999999904</v>
-      </c>
-      <c r="M15">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="N15">
-        <v>5.4376852660513099E-2</v>
-      </c>
-      <c r="O15">
-        <v>6.1999999999999904</v>
-      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2.14299999999999</v>
       </c>
       <c r="B16" s="2">
         <v>3.8675437601715698E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1728329999999669</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.012</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.46234804500437E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="H16">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="I16">
+        <v>5.9515588404701898E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="K16">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="L16">
+        <v>2.6536965280826399E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="N16">
+        <v>1.9689999999999901</v>
+      </c>
+      <c r="O16">
+        <v>1.5525869752736799E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="Q16">
         <v>6.2999999999999901</v>
       </c>
-      <c r="D16" s="1">
-        <v>2.012</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.46234804500437E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6.2999999999999901</v>
-      </c>
-      <c r="G16">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="H16">
-        <v>5.9515588404701898E-2</v>
-      </c>
-      <c r="I16">
-        <v>6.2999999999999901</v>
-      </c>
-      <c r="J16">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="K16">
-        <v>2.6536965280826399E-2</v>
-      </c>
-      <c r="L16">
-        <v>6.2999999999999901</v>
-      </c>
-      <c r="M16">
-        <v>1.9689999999999901</v>
-      </c>
-      <c r="N16">
-        <v>1.5525869752736799E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.2999999999999901</v>
-      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.5269999999999899</v>
       </c>
       <c r="B17" s="2">
         <v>4.3540664598558897E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5199719999999628</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.9466570535691501E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="H17">
+        <v>2.4744999999999902</v>
+      </c>
+      <c r="I17">
+        <v>4.99973683517968E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="K17">
+        <v>2.3944999999999901</v>
+      </c>
+      <c r="L17">
+        <v>1.5719582155957399E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="N17">
+        <v>2.3445</v>
+      </c>
+      <c r="O17">
+        <v>1.9049796241485201E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="Q17">
         <v>6.3999999999999897</v>
       </c>
-      <c r="D17" s="1">
-        <v>2.41</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.9466570535691501E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6.3999999999999897</v>
-      </c>
-      <c r="G17">
-        <v>2.4744999999999902</v>
-      </c>
-      <c r="H17">
-        <v>4.99973683517968E-2</v>
-      </c>
-      <c r="I17">
-        <v>6.3999999999999897</v>
-      </c>
-      <c r="J17">
-        <v>2.3944999999999901</v>
-      </c>
-      <c r="K17">
-        <v>1.5719582155957399E-2</v>
-      </c>
-      <c r="L17">
-        <v>6.3999999999999897</v>
-      </c>
-      <c r="M17">
-        <v>2.3445</v>
-      </c>
-      <c r="N17">
-        <v>1.9049796241485201E-2</v>
-      </c>
-      <c r="O17">
-        <v>6.3999999999999897</v>
-      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.9195000000000002</v>
       </c>
       <c r="B18" s="2">
         <v>3.0689446154389202E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8928249999999625</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.8835000000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.7455236440878399E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="H18">
+        <v>2.9799999999999902</v>
+      </c>
+      <c r="I18">
+        <v>2.9379548919900699E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="K18">
+        <v>2.8879999999999901</v>
+      </c>
+      <c r="L18">
+        <v>4.2870674555482602E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="N18">
+        <v>2.82649999999999</v>
+      </c>
+      <c r="O18">
+        <v>2.8704483420208999E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="Q18">
         <v>6.4999999999999902</v>
       </c>
-      <c r="D18" s="1">
-        <v>2.8835000000000002</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3.7455236440878399E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.4999999999999902</v>
-      </c>
-      <c r="G18">
-        <v>2.9799999999999902</v>
-      </c>
-      <c r="H18">
-        <v>2.9379548919900699E-2</v>
-      </c>
-      <c r="I18">
-        <v>6.4999999999999902</v>
-      </c>
-      <c r="J18">
-        <v>2.8879999999999901</v>
-      </c>
-      <c r="K18">
-        <v>4.2870674555482602E-2</v>
-      </c>
-      <c r="L18">
-        <v>6.4999999999999902</v>
-      </c>
-      <c r="M18">
-        <v>2.82649999999999</v>
-      </c>
-      <c r="N18">
-        <v>2.8704483420208999E-2</v>
-      </c>
-      <c r="O18">
-        <v>6.4999999999999902</v>
-      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.3999999999999901</v>
       </c>
       <c r="B19" s="2">
         <v>4.3407493895821499E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2913919999999584</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.4119999999999902</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4.7417518414944203E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="H19">
+        <v>3.3724999999999898</v>
+      </c>
+      <c r="I19">
+        <v>3.8234043799513999E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="K19">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="L19">
+        <v>4.3781755392665003E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="N19">
+        <v>3.3014999999999901</v>
+      </c>
+      <c r="O19">
+        <v>5.32397753959436E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="Q19">
         <v>6.5999999999999899</v>
       </c>
-      <c r="D19" s="1">
-        <v>3.4119999999999902</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4.7417518414944203E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.5999999999999899</v>
-      </c>
-      <c r="G19">
-        <v>3.3724999999999898</v>
-      </c>
-      <c r="H19">
-        <v>3.8234043799513999E-2</v>
-      </c>
-      <c r="I19">
-        <v>6.5999999999999899</v>
-      </c>
-      <c r="J19">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="K19">
-        <v>4.3781755392665003E-2</v>
-      </c>
-      <c r="L19">
-        <v>6.5999999999999899</v>
-      </c>
-      <c r="M19">
-        <v>3.3014999999999901</v>
-      </c>
-      <c r="N19">
-        <v>5.32397753959436E-2</v>
-      </c>
-      <c r="O19">
-        <v>6.5999999999999899</v>
-      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3.8885000000000001</v>
       </c>
       <c r="B20" s="2">
         <v>1.4244112357114499E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.715672999999958</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.883</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.47301222675591E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="H20">
+        <v>3.8319999999999901</v>
+      </c>
+      <c r="I20">
+        <v>4.9587774384630898E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="K20">
+        <v>3.83699999999999</v>
+      </c>
+      <c r="L20">
+        <v>2.05452004896008E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="N20">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="O20">
+        <v>2.14230569345518E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="Q20">
         <v>6.6999999999999904</v>
       </c>
-      <c r="D20" s="1">
-        <v>3.883</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.47301222675591E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6.6999999999999904</v>
-      </c>
-      <c r="G20">
-        <v>3.8319999999999901</v>
-      </c>
-      <c r="H20">
-        <v>4.9587774384630898E-2</v>
-      </c>
-      <c r="I20">
-        <v>6.6999999999999904</v>
-      </c>
-      <c r="J20">
-        <v>3.83699999999999</v>
-      </c>
-      <c r="K20">
-        <v>2.05452004896008E-2</v>
-      </c>
-      <c r="L20">
-        <v>6.6999999999999904</v>
-      </c>
-      <c r="M20">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="N20">
-        <v>2.14230569345518E-2</v>
-      </c>
-      <c r="O20">
-        <v>6.6999999999999904</v>
-      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.45</v>
       </c>
       <c r="B21" s="2">
         <v>8.5962047929365307E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1656679999999549</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.4249999999999901</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.187068802428692</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="H21">
+        <v>4.39299999999999</v>
+      </c>
+      <c r="I21">
+        <v>2.71642179501289E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="K21">
+        <v>4.2879999999999896</v>
+      </c>
+      <c r="L21">
+        <v>2.6675437154213999E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="N21">
+        <v>4.28</v>
+      </c>
+      <c r="O21">
+        <v>7.5253956007221401E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="Q21">
         <v>6.7999999999999901</v>
       </c>
-      <c r="D21" s="1">
-        <v>4.4249999999999901</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.187068802428692</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6.7999999999999901</v>
-      </c>
-      <c r="G21">
-        <v>4.39299999999999</v>
-      </c>
-      <c r="H21">
-        <v>2.71642179501289E-2</v>
-      </c>
-      <c r="I21">
-        <v>6.7999999999999901</v>
-      </c>
-      <c r="J21">
-        <v>4.2879999999999896</v>
-      </c>
-      <c r="K21">
-        <v>2.6675437154213999E-2</v>
-      </c>
-      <c r="L21">
-        <v>6.7999999999999901</v>
-      </c>
-      <c r="M21">
-        <v>4.28</v>
-      </c>
-      <c r="N21">
-        <v>7.5253956007221401E-2</v>
-      </c>
-      <c r="O21">
-        <v>6.7999999999999901</v>
-      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.9419999999999904</v>
       </c>
       <c r="B22" s="2">
         <v>5.2875225518991403E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6413769999999497</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.883</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.7850119933064599E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="H22">
+        <v>4.7984999999999998</v>
+      </c>
+      <c r="I22">
+        <v>6.5153664517047599E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="K22">
+        <v>4.7945000000000002</v>
+      </c>
+      <c r="L22">
+        <v>4.9040799340956898E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="N22">
+        <v>4.7175000000000002</v>
+      </c>
+      <c r="O22">
+        <v>4.2534815461170002E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="Q22">
         <v>6.8999999999999897</v>
       </c>
-      <c r="D22" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3.7850119933064599E-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.8999999999999897</v>
-      </c>
-      <c r="G22">
-        <v>4.7984999999999998</v>
-      </c>
-      <c r="H22">
-        <v>6.5153664517047599E-2</v>
-      </c>
-      <c r="I22">
-        <v>6.8999999999999897</v>
-      </c>
-      <c r="J22">
-        <v>4.7945000000000002</v>
-      </c>
-      <c r="K22">
-        <v>4.9040799340956898E-2</v>
-      </c>
-      <c r="L22">
-        <v>6.8999999999999897</v>
-      </c>
-      <c r="M22">
-        <v>4.7175000000000002</v>
-      </c>
-      <c r="N22">
-        <v>4.2534815461170002E-2</v>
-      </c>
-      <c r="O22">
-        <v>6.8999999999999897</v>
-      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.4729999999999999</v>
       </c>
       <c r="B23" s="2">
         <v>0.24044038543341301</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1427999999999505</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.9193495504995202E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="H23">
+        <v>5.4174999999999898</v>
+      </c>
+      <c r="I23">
+        <v>0.17967441313899399</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="K23">
+        <v>5.5075000000000003</v>
+      </c>
+      <c r="L23">
+        <v>5.5047826095993201E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="N23">
+        <v>5.2645</v>
+      </c>
+      <c r="O23">
+        <v>6.9847578415620906E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="Q23">
         <v>6.9999999999999902</v>
       </c>
-      <c r="D23" s="1">
-        <v>5.4509999999999996</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4.9193495504995202E-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6.9999999999999902</v>
-      </c>
-      <c r="G23">
-        <v>5.4174999999999898</v>
-      </c>
-      <c r="H23">
-        <v>0.17967441313899399</v>
-      </c>
-      <c r="I23">
-        <v>6.9999999999999902</v>
-      </c>
-      <c r="J23">
-        <v>5.5075000000000003</v>
-      </c>
-      <c r="K23">
-        <v>5.5047826095993201E-2</v>
-      </c>
-      <c r="L23">
-        <v>6.9999999999999902</v>
-      </c>
-      <c r="M23">
-        <v>5.2645</v>
-      </c>
-      <c r="N23">
-        <v>6.9847578415620906E-2</v>
-      </c>
-      <c r="O23">
-        <v>6.9999999999999902</v>
-      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6.0065</v>
       </c>
       <c r="B24" s="2">
         <v>6.4910870065279194E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6699369999999458</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.0534999999999899</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.2650461429801401E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="H24">
+        <v>5.9145000000000003</v>
+      </c>
+      <c r="I24">
+        <v>3.9400106866005202E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="K24">
+        <v>5.8554999999999904</v>
+      </c>
+      <c r="L24">
+        <v>9.4728142875449603E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="N24">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="O24">
+        <v>7.8900336868068799E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="Q24">
         <v>7.0999999999999899</v>
       </c>
-      <c r="D24" s="1">
-        <v>6.0534999999999899</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.2650461429801401E-2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7.0999999999999899</v>
-      </c>
-      <c r="G24">
-        <v>5.9145000000000003</v>
-      </c>
-      <c r="H24">
-        <v>3.9400106866005202E-2</v>
-      </c>
-      <c r="I24">
-        <v>7.0999999999999899</v>
-      </c>
-      <c r="J24">
-        <v>5.8554999999999904</v>
-      </c>
-      <c r="K24">
-        <v>9.4728142875449603E-2</v>
-      </c>
-      <c r="L24">
-        <v>7.0999999999999899</v>
-      </c>
-      <c r="M24">
-        <v>5.8540000000000001</v>
-      </c>
-      <c r="N24">
-        <v>7.8900336868068799E-2</v>
-      </c>
-      <c r="O24">
-        <v>7.0999999999999899</v>
-      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6.5754999999999901</v>
       </c>
       <c r="B25" s="2">
         <v>5.3061533296630901E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2227879999999463</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5389999999999899</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6.1121104977611598E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="H25">
+        <v>6.4819999999999904</v>
+      </c>
+      <c r="I25">
+        <v>4.13712333314879E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="K25">
+        <v>6.3979999999999899</v>
+      </c>
+      <c r="L25">
+        <v>4.7195004195917198E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="N25">
+        <v>6.39299999999999</v>
+      </c>
+      <c r="O25">
+        <v>3.4351128074635397E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="Q25">
         <v>7.1999999999999904</v>
       </c>
-      <c r="D25" s="1">
-        <v>6.5389999999999899</v>
-      </c>
-      <c r="E25" s="2">
-        <v>6.1121104977611598E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>7.1999999999999904</v>
-      </c>
-      <c r="G25">
-        <v>6.4819999999999904</v>
-      </c>
-      <c r="H25">
-        <v>4.13712333314879E-2</v>
-      </c>
-      <c r="I25">
-        <v>7.1999999999999904</v>
-      </c>
-      <c r="J25">
-        <v>6.3979999999999899</v>
-      </c>
-      <c r="K25">
-        <v>4.7195004195917198E-2</v>
-      </c>
-      <c r="L25">
-        <v>7.1999999999999904</v>
-      </c>
-      <c r="M25">
-        <v>6.39299999999999</v>
-      </c>
-      <c r="N25">
-        <v>3.4351128074635397E-2</v>
-      </c>
-      <c r="O25">
-        <v>7.1999999999999904</v>
-      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7.1679999999999904</v>
       </c>
       <c r="B26" s="2">
         <v>4.1243819313673498E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8013529999999411</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5.8902238363329702E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="H26">
+        <v>7.1039999999999903</v>
+      </c>
+      <c r="I26">
+        <v>8.8638829557159404E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="K26">
+        <v>7.1699999999999902</v>
+      </c>
+      <c r="L26">
+        <v>7.0487027548560802E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="N26">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="O26">
+        <v>6.8525830704079804E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="Q26">
         <v>7.2999999999999901</v>
       </c>
-      <c r="D26" s="1">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5.8902238363329702E-2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7.2999999999999901</v>
-      </c>
-      <c r="G26">
-        <v>7.1039999999999903</v>
-      </c>
-      <c r="H26">
-        <v>8.8638829557159404E-2</v>
-      </c>
-      <c r="I26">
-        <v>7.2999999999999901</v>
-      </c>
-      <c r="J26">
-        <v>7.1699999999999902</v>
-      </c>
-      <c r="K26">
-        <v>7.0487027548560802E-2</v>
-      </c>
-      <c r="L26">
-        <v>7.2999999999999901</v>
-      </c>
-      <c r="M26">
-        <v>6.9870000000000001</v>
-      </c>
-      <c r="N26">
-        <v>6.8525830704079804E-2</v>
-      </c>
-      <c r="O26">
-        <v>7.2999999999999901</v>
-      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7.8760000000000003</v>
       </c>
       <c r="B27" s="2">
         <v>2.56289310206874E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4056319999999376</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.9080000000000004</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.4142735871850394E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="H27">
+        <v>7.8049999999999899</v>
+      </c>
+      <c r="I27">
+        <v>6.88629455016114E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="K27">
+        <v>7.8739999999999899</v>
+      </c>
+      <c r="L27">
+        <v>3.1689280937184303E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="N27">
+        <v>7.6549999999999896</v>
+      </c>
+      <c r="O27">
+        <v>3.6346287727620101E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="Q27">
         <v>7.3999999999999897</v>
       </c>
-      <c r="D27" s="1">
-        <v>7.9080000000000004</v>
-      </c>
-      <c r="E27" s="2">
-        <v>8.4142735871850394E-2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>7.3999999999999897</v>
-      </c>
-      <c r="G27">
-        <v>7.8049999999999899</v>
-      </c>
-      <c r="H27">
-        <v>6.88629455016114E-2</v>
-      </c>
-      <c r="I27">
-        <v>7.3999999999999897</v>
-      </c>
-      <c r="J27">
-        <v>7.8739999999999899</v>
-      </c>
-      <c r="K27">
-        <v>3.1689280937184303E-2</v>
-      </c>
-      <c r="L27">
-        <v>7.3999999999999897</v>
-      </c>
-      <c r="M27">
-        <v>7.6549999999999896</v>
-      </c>
-      <c r="N27">
-        <v>3.6346287727620101E-2</v>
-      </c>
-      <c r="O27">
-        <v>7.3999999999999897</v>
-      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8.6029999999999909</v>
       </c>
       <c r="B28" s="2">
         <v>6.58626960945429E-2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0356249999999374</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.6904999999999895</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.6774562146307602E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="H28">
+        <v>8.4874999999999901</v>
+      </c>
+      <c r="I28">
+        <v>4.2036951163920998E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="K28">
+        <v>8.5470000000000006</v>
+      </c>
+      <c r="L28">
+        <v>6.9969918348417495E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="N28">
+        <v>8.3879999999999999</v>
+      </c>
+      <c r="O28">
+        <v>3.0192365713345801E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="Q28">
         <v>7.4999999999999902</v>
       </c>
-      <c r="D28" s="1">
-        <v>8.6904999999999895</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3.6774562146307602E-2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>7.4999999999999902</v>
-      </c>
-      <c r="G28">
-        <v>8.4874999999999901</v>
-      </c>
-      <c r="H28">
-        <v>4.2036951163920998E-2</v>
-      </c>
-      <c r="I28">
-        <v>7.4999999999999902</v>
-      </c>
-      <c r="J28">
-        <v>8.5470000000000006</v>
-      </c>
-      <c r="K28">
-        <v>6.9969918348417495E-2</v>
-      </c>
-      <c r="L28">
-        <v>7.4999999999999902</v>
-      </c>
-      <c r="M28">
-        <v>8.3879999999999999</v>
-      </c>
-      <c r="N28">
-        <v>3.0192365713345801E-2</v>
-      </c>
-      <c r="O28">
-        <v>7.4999999999999902</v>
-      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9.2434999999999992</v>
       </c>
       <c r="B29" s="2">
         <v>6.2683415081788305E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6913319999999334</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.3069999999999897</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.8811284305903603E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="H29">
+        <v>9.0995000000000008</v>
+      </c>
+      <c r="I29">
+        <v>4.1861299801279901E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="K29">
+        <v>9.1639999999999908</v>
+      </c>
+      <c r="L29">
+        <v>7.1627692380736796E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="N29">
+        <v>9.0654999999999895</v>
+      </c>
+      <c r="O29">
+        <v>0.20793407356027099</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="Q29">
         <v>7.5999999999999899</v>
       </c>
-      <c r="D29" s="1">
-        <v>9.3069999999999897</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3.8811284305903603E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>7.5999999999999899</v>
-      </c>
-      <c r="G29">
-        <v>9.0995000000000008</v>
-      </c>
-      <c r="H29">
-        <v>4.1861299801279901E-2</v>
-      </c>
-      <c r="I29">
-        <v>7.5999999999999899</v>
-      </c>
-      <c r="J29">
-        <v>9.1639999999999908</v>
-      </c>
-      <c r="K29">
-        <v>7.1627692380736796E-2</v>
-      </c>
-      <c r="L29">
-        <v>7.5999999999999899</v>
-      </c>
-      <c r="M29">
-        <v>9.0654999999999895</v>
-      </c>
-      <c r="N29">
-        <v>0.20793407356027099</v>
-      </c>
-      <c r="O29">
-        <v>7.5999999999999899</v>
-      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9.9280000000000008</v>
       </c>
       <c r="B30" s="2">
         <v>7.5714143850058396E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3727529999999337</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10.022</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.5777087639996499E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="H30">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="I30">
+        <v>7.10374252733985E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="K30">
+        <v>9.8169999999999895</v>
+      </c>
+      <c r="L30">
+        <v>8.7545476903811204E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="N30">
+        <v>9.6905000000000001</v>
+      </c>
+      <c r="O30">
+        <v>5.3751376971346201E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="Q30">
         <v>7.6999999999999904</v>
       </c>
-      <c r="D30" s="1">
-        <v>10.022</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.5777087639996499E-2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>7.6999999999999904</v>
-      </c>
-      <c r="G30">
-        <v>9.7840000000000007</v>
-      </c>
-      <c r="H30">
-        <v>7.10374252733985E-2</v>
-      </c>
-      <c r="I30">
-        <v>7.6999999999999904</v>
-      </c>
-      <c r="J30">
-        <v>9.8169999999999895</v>
-      </c>
-      <c r="K30">
-        <v>8.7545476903811204E-2</v>
-      </c>
-      <c r="L30">
-        <v>7.6999999999999904</v>
-      </c>
-      <c r="M30">
-        <v>9.6905000000000001</v>
-      </c>
-      <c r="N30">
-        <v>5.3751376971346201E-2</v>
-      </c>
-      <c r="O30">
-        <v>7.6999999999999904</v>
-      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10.6275</v>
       </c>
       <c r="B31" s="2">
         <v>6.6163672653105896E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>10.079887999999929</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10.7349999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6.1942248145051497E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="H31">
+        <v>10.5109999999999</v>
+      </c>
+      <c r="I31">
+        <v>5.2405303066327798E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="K31">
+        <v>10.5169999999999</v>
+      </c>
+      <c r="L31">
+        <v>8.6578227480609601E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="N31">
+        <v>10.510999999999999</v>
+      </c>
+      <c r="O31">
+        <v>6.1293083665803202E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="Q31">
         <v>7.7999999999999901</v>
       </c>
-      <c r="D31" s="1">
-        <v>10.7349999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6.1942248145051497E-2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>7.7999999999999901</v>
-      </c>
-      <c r="G31">
-        <v>10.5109999999999</v>
-      </c>
-      <c r="H31">
-        <v>5.2405303066327798E-2</v>
-      </c>
-      <c r="I31">
-        <v>7.7999999999999901</v>
-      </c>
-      <c r="J31">
-        <v>10.5169999999999</v>
-      </c>
-      <c r="K31">
-        <v>8.6578227480609601E-2</v>
-      </c>
-      <c r="L31">
-        <v>7.7999999999999901</v>
-      </c>
-      <c r="M31">
-        <v>10.510999999999999</v>
-      </c>
-      <c r="N31">
-        <v>6.1293083665803202E-2</v>
-      </c>
-      <c r="O31">
-        <v>7.7999999999999901</v>
-      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11.4079999999999</v>
       </c>
       <c r="B32" s="2">
         <v>0.125806869530453</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>10.812736999999851</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.11128909721035</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="H32">
+        <v>11.176</v>
+      </c>
+      <c r="I32">
+        <v>9.4501461976995105E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="K32">
+        <v>11.1435</v>
+      </c>
+      <c r="L32">
+        <v>8.2159985138111805E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="N32">
+        <v>11.2349999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.120109599072986</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="Q32">
         <v>7.8999999999999799</v>
       </c>
-      <c r="D32" s="1">
-        <v>11.342000000000001</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.11128909721035</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7.8999999999999799</v>
-      </c>
-      <c r="G32">
-        <v>11.176</v>
-      </c>
-      <c r="H32">
-        <v>9.4501461976995105E-2</v>
-      </c>
-      <c r="I32">
-        <v>7.8999999999999799</v>
-      </c>
-      <c r="J32">
-        <v>11.1435</v>
-      </c>
-      <c r="K32">
-        <v>8.2159985138111805E-2</v>
-      </c>
-      <c r="L32">
-        <v>7.8999999999999799</v>
-      </c>
-      <c r="M32">
-        <v>11.2349999999999</v>
-      </c>
-      <c r="N32">
-        <v>0.120109599072986</v>
-      </c>
-      <c r="O32">
-        <v>7.8999999999999799</v>
-      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11.952</v>
       </c>
       <c r="B33" s="2">
         <v>0.13813037319865601</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>11.571299999999843</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="E33" s="1">
+        <v>12.0215</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.146009192212429</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="H33">
+        <v>11.9199999999999</v>
+      </c>
+      <c r="I33">
+        <v>8.0262726487192404E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="K33">
+        <v>11.766</v>
+      </c>
+      <c r="L33">
+        <v>7.4931547709260998E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="N33">
+        <v>11.9674999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.122940935754575</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="Q33">
         <v>7.9999999999999796</v>
       </c>
-      <c r="D33" s="1">
-        <v>12.0215</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.146009192212429</v>
-      </c>
-      <c r="F33" s="3">
-        <v>7.9999999999999796</v>
-      </c>
-      <c r="G33">
-        <v>11.9199999999999</v>
-      </c>
-      <c r="H33">
-        <v>8.0262726487192404E-2</v>
-      </c>
-      <c r="I33">
-        <v>7.9999999999999796</v>
-      </c>
-      <c r="J33">
-        <v>11.766</v>
-      </c>
-      <c r="K33">
-        <v>7.4931547709260998E-2</v>
-      </c>
-      <c r="L33">
-        <v>7.9999999999999796</v>
-      </c>
-      <c r="M33">
-        <v>11.9674999999999</v>
-      </c>
-      <c r="N33">
-        <v>0.122940935754575</v>
-      </c>
-      <c r="O33">
-        <v>7.9999999999999796</v>
-      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12.653</v>
       </c>
       <c r="B34" s="2">
         <v>0.113605967226522</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>12.355576999999842</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12.7029999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.144881076458554</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="H34">
+        <v>12.5625</v>
+      </c>
+      <c r="I34">
+        <v>0.222210781869258</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="K34">
+        <v>12.468</v>
+      </c>
+      <c r="L34">
+        <v>0.133794815413673</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="N34">
+        <v>12.490500000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.29725896914448502</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="Q34">
         <v>8.0999999999999801</v>
       </c>
-      <c r="D34" s="1">
-        <v>12.7029999999999</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.144881076458554</v>
-      </c>
-      <c r="F34" s="3">
-        <v>8.0999999999999801</v>
-      </c>
-      <c r="G34">
-        <v>12.5625</v>
-      </c>
-      <c r="H34">
-        <v>0.222210781869258</v>
-      </c>
-      <c r="I34">
-        <v>8.0999999999999801</v>
-      </c>
-      <c r="J34">
-        <v>12.468</v>
-      </c>
-      <c r="K34">
-        <v>0.133794815413673</v>
-      </c>
-      <c r="L34">
-        <v>8.0999999999999801</v>
-      </c>
-      <c r="M34">
-        <v>12.490500000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.29725896914448502</v>
-      </c>
-      <c r="O34">
-        <v>8.0999999999999801</v>
-      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13.273999999999999</v>
       </c>
       <c r="B35" s="2">
         <v>0.13743515217232999</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>13.165567999999833</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="E35" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.13984954321284701</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="H35">
+        <v>13.227</v>
+      </c>
+      <c r="I35">
+        <v>0.16010194120917901</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="K35">
+        <v>13.064</v>
+      </c>
+      <c r="L35">
+        <v>7.0814806658673193E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="N35">
+        <v>13.126499999999901</v>
+      </c>
+      <c r="O35">
+        <v>7.0133331665666196E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="Q35">
         <v>8.1999999999999797</v>
       </c>
-      <c r="D35" s="1">
-        <v>13.32</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.13984954321284701</v>
-      </c>
-      <c r="F35" s="3">
-        <v>8.1999999999999797</v>
-      </c>
-      <c r="G35">
-        <v>13.227</v>
-      </c>
-      <c r="H35">
-        <v>0.16010194120917901</v>
-      </c>
-      <c r="I35">
-        <v>8.1999999999999797</v>
-      </c>
-      <c r="J35">
-        <v>13.064</v>
-      </c>
-      <c r="K35">
-        <v>7.0814806658673193E-2</v>
-      </c>
-      <c r="L35">
-        <v>8.1999999999999797</v>
-      </c>
-      <c r="M35">
-        <v>13.126499999999901</v>
-      </c>
-      <c r="N35">
-        <v>7.0133331665666196E-2</v>
-      </c>
-      <c r="O35">
-        <v>8.1999999999999797</v>
-      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>13.9529999999999</v>
       </c>
       <c r="B36" s="2">
         <v>0.158283556349124</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>14.001272999999825</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13.924999999999899</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.22328881462545699</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="H36">
+        <v>13.8729999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.18307605552136799</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="K36">
+        <v>13.686999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.29954526940189202</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="N36">
+        <v>13.8669999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.20157537443583501</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="Q36">
         <v>8.2999999999999794</v>
       </c>
-      <c r="D36" s="1">
-        <v>13.924999999999899</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.22328881462545699</v>
-      </c>
-      <c r="F36" s="3">
-        <v>8.2999999999999794</v>
-      </c>
-      <c r="G36">
-        <v>13.8729999999999</v>
-      </c>
-      <c r="H36">
-        <v>0.18307605552136799</v>
-      </c>
-      <c r="I36">
-        <v>8.2999999999999794</v>
-      </c>
-      <c r="J36">
-        <v>13.686999999999999</v>
-      </c>
-      <c r="K36">
-        <v>0.29954526940189202</v>
-      </c>
-      <c r="L36">
-        <v>8.2999999999999794</v>
-      </c>
-      <c r="M36">
-        <v>13.8669999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.20157537443583501</v>
-      </c>
-      <c r="O36">
-        <v>8.2999999999999794</v>
-      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>14.506</v>
       </c>
       <c r="B37" s="5">
         <v>0.29679693571974602</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>14.862691999999832</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="E37" s="4">
+        <v>14.585999999999901</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.12922440701516399</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="H37">
+        <v>14.516</v>
+      </c>
+      <c r="I37">
+        <v>0.106444944998761</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="K37">
+        <v>14.526499999999899</v>
+      </c>
+      <c r="L37">
+        <v>0.14027322961765801</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="N37">
+        <v>14.443</v>
+      </c>
+      <c r="O37">
+        <v>0.20251315746728199</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="Q37">
         <v>8.3999999999999808</v>
       </c>
-      <c r="D37" s="4">
-        <v>14.585999999999901</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0.12922440701516399</v>
-      </c>
-      <c r="F37" s="6">
-        <v>8.3999999999999808</v>
-      </c>
-      <c r="G37">
-        <v>14.516</v>
-      </c>
-      <c r="H37">
-        <v>0.106444944998761</v>
-      </c>
-      <c r="I37">
-        <v>8.3999999999999808</v>
-      </c>
-      <c r="J37">
-        <v>14.526499999999899</v>
-      </c>
-      <c r="K37">
-        <v>0.14027322961765801</v>
-      </c>
-      <c r="L37">
-        <v>8.3999999999999808</v>
-      </c>
-      <c r="M37">
-        <v>14.443</v>
-      </c>
-      <c r="N37">
-        <v>0.20251315746728199</v>
-      </c>
-      <c r="O37">
-        <v>8.3999999999999808</v>
-      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="10">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tests/rotor2/Rotor2_Thrust_Constant_Calculation.xlsx
+++ b/tests/rotor2/Rotor2_Thrust_Constant_Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\repos\rx-2\tests\rotor2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF633723-192D-4E62-A340-340561C74DFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635409F6-D3DD-417F-9480-64FDC92B5A74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Force {N} (mean)</t>
   </si>
@@ -54,10 +54,16 @@
     <t>Rotor 2 Thrust Test 5</t>
   </si>
   <si>
-    <t>offset</t>
+    <t>Approx</t>
   </si>
   <si>
-    <t>Approx</t>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>offset dt</t>
+  </si>
+  <si>
+    <t>offset t (ms)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -629,6 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,7 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -839,8 +848,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34511570428696414"/>
-                  <c:y val="-4.5799431321084862E-2"/>
+                  <c:x val="-0.17175772671273234"/>
+                  <c:y val="-1.8600455875403536E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -875,7 +884,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$D$3:$D$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -883,106 +892,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1155,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$D$3:$D$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1154,106 +1163,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1392,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>1.2857x2</c:v>
+            <c:v>Quadractic Approx</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1401,7 +1410,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="92D050"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1409,7 +1418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$D$3:$D$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1417,106 +1426,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,106 +1540,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2856999999997398E-2</c:v>
+                  <c:v>1.285639999999728E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1427999999995068E-2</c:v>
+                  <c:v>5.1425599999995256E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11571299999999234</c:v>
+                  <c:v>0.11570759999999222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2057119999999894</c:v>
+                  <c:v>0.20570239999998879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32142499999998747</c:v>
+                  <c:v>0.32140999999998771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46285199999998439</c:v>
+                  <c:v>0.46283039999998399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62999299999998282</c:v>
+                  <c:v>0.62996359999998186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8228479999999796</c:v>
+                  <c:v>0.82280959999997971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0414169999999763</c:v>
+                  <c:v>1.0413683999999754</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2856999999999748</c:v>
+                  <c:v>1.2856399999999732</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5556969999999715</c:v>
+                  <c:v>1.5556243999999713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8514079999999706</c:v>
+                  <c:v>1.8513215999999695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1728329999999669</c:v>
+                  <c:v>2.1727315999999677</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5199719999999628</c:v>
+                  <c:v>2.5198543999999625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8928249999999625</c:v>
+                  <c:v>2.8926899999999609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2913919999999584</c:v>
+                  <c:v>3.2912383999999588</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.715672999999958</c:v>
+                  <c:v>3.7154995999999576</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1656679999999549</c:v>
+                  <c:v>4.1654735999999515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6413769999999497</c:v>
+                  <c:v>4.6411603999999498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1427999999999505</c:v>
+                  <c:v>5.1425599999999489</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6699369999999458</c:v>
+                  <c:v>5.6696723999999428</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2227879999999463</c:v>
+                  <c:v>6.2224975999999463</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8013529999999411</c:v>
+                  <c:v>6.8010355999999401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4056319999999376</c:v>
+                  <c:v>7.4052863999999374</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0356249999999374</c:v>
+                  <c:v>8.0352499999999356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6913319999999334</c:v>
+                  <c:v>8.6909263999999293</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.3727529999999337</c:v>
+                  <c:v>9.3723155999999346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.079887999999929</c:v>
+                  <c:v>10.07941759999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.812736999999851</c:v>
+                  <c:v>10.812232399999845</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.571299999999843</c:v>
+                  <c:v>11.570759999999844</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.355576999999842</c:v>
+                  <c:v>12.35500039999984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.165567999999833</c:v>
+                  <c:v>13.164953599999826</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.001272999999825</c:v>
+                  <c:v>14.000619599999826</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.862691999999832</c:v>
+                  <c:v>14.86199839999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1647,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E572-43AF-91E5-8AA20195D09F}"/>
+              <c16:uniqueId val="{00000002-D3CC-4DAA-A0C4-0D4522E221B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1657,6 +1666,8 @@
         <c:axId val="134086735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1700,6 +1711,7 @@
         <c:crossAx val="71346895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.30000000000000004"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
@@ -1928,7 +1940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$H$2</c:f>
+              <c:f>Rotor2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2013,7 +2025,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$J$3:$J$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2021,113 +2033,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$H$3:$H$37</c:f>
+              <c:f>Rotor2!$I$3:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2251,7 +2263,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$I$2</c:f>
+              <c:f>Rotor2!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2284,7 +2296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$J$3:$J$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2292,113 +2304,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$I$3:$I$37</c:f>
+              <c:f>Rotor2!$J$3:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2795,7 +2807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$E$2</c:f>
+              <c:f>Rotor2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2844,8 +2856,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43400459317585299"/>
-                  <c:y val="4.9586249635462237E-2"/>
+                  <c:x val="-0.25705526621051838"/>
+                  <c:y val="6.8255480492325927E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2880,7 +2892,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$G$3:$G$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2888,113 +2900,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$E$3:$E$37</c:f>
+              <c:f>Rotor2!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3118,7 +3130,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$F$2</c:f>
+              <c:f>Rotor2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3151,7 +3163,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$G$3:$G$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3159,113 +3171,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$F$3:$F$37</c:f>
+              <c:f>Rotor2!$G$3:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3669,7 +3681,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$K$2</c:f>
+              <c:f>Rotor2!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3718,8 +3730,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31758774472253853"/>
-                  <c:y val="-5.67220068663482E-2"/>
+                  <c:x val="-0.24672311221647725"/>
+                  <c:y val="4.8052795290601533E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3754,7 +3766,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$M$3:$M$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3762,113 +3774,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$K$3:$K$37</c:f>
+              <c:f>Rotor2!$L$3:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3992,7 +4004,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$L$2</c:f>
+              <c:f>Rotor2!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4025,7 +4037,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$M$3:$M$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4033,113 +4045,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$L$3:$L$37</c:f>
+              <c:f>Rotor2!$M$3:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4551,7 +4563,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$N$2</c:f>
+              <c:f>Rotor2!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4600,8 +4612,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31615436959268978"/>
-                  <c:y val="-2.8917893606516327E-2"/>
+                  <c:x val="-0.22849648423576682"/>
+                  <c:y val="1.690268758501973E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4636,7 +4648,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$P$3:$P$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4644,113 +4656,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$N$3:$N$37</c:f>
+              <c:f>Rotor2!$O$3:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4874,7 +4886,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rotor2!$O$2</c:f>
+              <c:f>Rotor2!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4907,7 +4919,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$P$3:$P$37</c:f>
+              <c:f>Rotor2!$S$3:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4915,113 +4927,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rotor2!$O$3:$O$37</c:f>
+              <c:f>Rotor2!$P$3:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -8122,16 +8134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8158,16 +8170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8194,16 +8206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8230,16 +8242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8266,16 +8278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8600,43 +8612,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -8644,49 +8660,50 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -8694,58 +8711,63 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>1.2857*D3*D3</f>
+        <f>32.141*S3*S3</f>
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f>Q3-$B$38</f>
+        <f>R3-$B$38</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <f>Q3-$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="3">
+        <f>R3-$B$38</f>
         <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>R3-$B$38</f>
         <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>R3-$B$38</f>
         <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <f>Q3-$B$38</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>R3-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>5</v>
       </c>
+      <c r="S3">
+        <f>(((R3)/(100*$B$39)) -$B$40)*1000</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -8753,58 +8775,63 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C37" si="0">1.2857*D4*D4</f>
-        <v>1.2856999999997398E-2</v>
+        <f t="shared" ref="C4:C37" si="0">32.141*S4*S4</f>
+        <v>1.285639999999728E-2</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D37" si="1">Q4-$B$38</f>
+        <f t="shared" ref="D4:D37" si="1">R4-$B$38</f>
         <v>9.9999999999989875E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G37" si="2">Q4-$B$38</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H37" si="2">R4-$B$38</f>
         <v>9.9999999999989875E-2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J37" si="3">Q4-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K37" si="3">R4-$B$38</f>
         <v>9.9999999999989875E-2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M37" si="4">Q4-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N37" si="4">R4-$B$38</f>
         <v>9.9999999999989875E-2</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P37" si="5">Q4-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q37" si="5">R4-$B$38</f>
         <v>9.9999999999989875E-2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5.0999999999999899</v>
       </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S37" si="6">(((R4)/(100*$B$39)) -$B$40)*1000</f>
+        <v>1.9999999999997884E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -8813,57 +8840,62 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>5.1427999999995068E-2</v>
+        <v>5.1425599999995256E-2</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>0.19999999999999041</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0.19999999999999041</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>0.19999999999999041</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="4"/>
         <v>0.19999999999999041</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="5"/>
         <v>0.19999999999999041</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5.1999999999999904</v>
       </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>3.9999999999998155E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8872,57 +8904,62 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.11571299999999234</v>
+        <v>0.11570759999999222</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>0.29999999999999005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0.29999999999999005</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="3"/>
         <v>0.29999999999999005</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
         <v>0.29999999999999005</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="5"/>
         <v>0.29999999999999005</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5.2999999999999901</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>5.9999999999997986E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.14499999999999999</v>
       </c>
@@ -8931,57 +8968,62 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0.2057119999999894</v>
+        <v>0.20570239999998879</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>0.3999999999999897</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>3.0779350562554599E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0.3999999999999897</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1065</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.8936048492959202E-3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>0.3999999999999897</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.03109548284183E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="4"/>
         <v>0.3999999999999897</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.14099999999999999</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7.8806892565241107E-3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="5"/>
         <v>0.3999999999999897</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.3999999999999897</v>
       </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>7.9999999999997823E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.26750000000000002</v>
       </c>
@@ -8990,57 +9032,62 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0.32142499999998747</v>
+        <v>0.32140999999998771</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>0.49999999999999023</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5.7124057057748E-3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0.49999999999999023</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2155</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5.1041778553403997E-3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>0.49999999999999023</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.19</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.8637822325921798E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="4"/>
         <v>0.49999999999999023</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.25950000000000001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.70061908232205E-2</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="5"/>
         <v>0.49999999999999023</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5.4999999999999902</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>9.999999999999809E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.35249999999999898</v>
       </c>
@@ -9049,57 +9096,62 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0.46285199999998439</v>
+        <v>0.46283039999998399</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>0.59999999999998987</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
         <v>0.33599999999999902</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>8.2078268166812206E-3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>0.59999999999998987</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.34949999999999898</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.9403446282620502E-3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>0.59999999999998987</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.35049999999999898</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8.2557794748189407E-3</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="4"/>
         <v>0.59999999999998987</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.33799999999999902</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>4.1039134083406103E-3</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="5"/>
         <v>0.59999999999998987</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.5999999999999899</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>0.11999999999999793</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.495</v>
       </c>
@@ -9108,57 +9160,62 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0.62999299999998282</v>
+        <v>0.62996359999998186</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>0.69999999999999041</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>7.6777189594991304E-3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>0.69999999999999041</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.48799999999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6.1558701125109302E-3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>0.69999999999999041</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.46400000000000002</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5.0262468995003204E-3</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="4"/>
         <v>0.69999999999999041</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.46699999999999903</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4.7016234598162496E-3</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="5"/>
         <v>0.69999999999999041</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5.6999999999999904</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>0.13999999999999799</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.66700000000000004</v>
       </c>
@@ -9167,57 +9224,62 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0.8228479999999796</v>
+        <v>0.82280959999997971</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
         <v>0.79999999999999005</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1">
         <v>0.64049999999999996</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>6.04805318829299E-3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0.79999999999999005</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.64600000000000002</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5.0262468995003499E-3</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>0.79999999999999005</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.62849999999999995</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.8936048492959298E-3</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="4"/>
         <v>0.79999999999999005</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.61750000000000005</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.2682012349227901E-2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="5"/>
         <v>0.79999999999999005</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5.7999999999999901</v>
       </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>0.15999999999999803</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.84699999999999898</v>
       </c>
@@ -9226,57 +9288,62 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>1.0414169999999763</v>
+        <v>1.0413683999999754</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
         <v>0.8999999999999897</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
         <v>0.82449999999999901</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>5.1041778553403997E-3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <f t="shared" si="2"/>
         <v>0.8999999999999897</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.82749999999999901</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4.4426165831931898E-3</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>0.8999999999999897</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.82150000000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.8714294861239797E-3</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="4"/>
         <v>0.8999999999999897</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.83099999999999996</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4.3395367203617898E-2</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="5"/>
         <v>0.8999999999999897</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5.8999999999999897</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>0.17999999999999788</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.073</v>
       </c>
@@ -9285,57 +9352,62 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>1.2856999999999748</v>
+        <v>1.2856399999999732</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
         <v>0.99999999999999023</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
         <v>1.101</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>8.8905627079031296E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>0.99999999999999023</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.0620000000000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6.9585237393845903E-3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>0.99999999999999023</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.0375000000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.5069630922340097E-3</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="4"/>
         <v>0.99999999999999023</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1.0485</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3.7735227154756197E-2</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="5"/>
         <v>0.99999999999999023</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>5.9999999999999902</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999793</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.4244999999999901</v>
       </c>
@@ -9344,57 +9416,62 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>1.5556969999999715</v>
+        <v>1.5556243999999713</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
         <v>1.0999999999999899</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2"/>
+      <c r="F14" s="1">
         <v>1.359</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>2.07491280729931E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>1.0999999999999899</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.45</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6.6253103204382199E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>1.0999999999999899</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.41949999999999</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9.6979379251467601E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="4"/>
         <v>1.0999999999999899</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.3089999999999899</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.07115284672759E-2</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="5"/>
         <v>1.0999999999999899</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>6.0999999999999899</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>0.21999999999999797</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.77199999999999</v>
       </c>
@@ -9403,57 +9480,62 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8514079999999706</v>
+        <v>1.8513215999999695</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
         <v>1.1999999999999904</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2"/>
+      <c r="F15" s="1">
         <v>1.6539999999999899</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2.6832815729997399E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>1.1999999999999904</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.635</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.2124052165245899E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>1.1999999999999904</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.63299999999999</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.38031270293898E-2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="4"/>
         <v>1.1999999999999904</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.6910000000000001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5.4376852660513099E-2</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="5"/>
         <v>1.1999999999999904</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.1999999999999904</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>0.23999999999999802</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2.14299999999999</v>
       </c>
@@ -9462,57 +9544,62 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>2.1728329999999669</v>
+        <v>2.1727315999999677</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>1.2999999999999901</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
         <v>2.012</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>2.46234804500437E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>1.2999999999999901</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.0449999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.9515588404701898E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>1.2999999999999901</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.9810000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.6536965280826399E-2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="4"/>
         <v>1.2999999999999901</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.9689999999999901</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.5525869752736799E-2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="5"/>
         <v>1.2999999999999901</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>6.2999999999999901</v>
       </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>0.25999999999999807</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.5269999999999899</v>
       </c>
@@ -9521,57 +9608,62 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>2.5199719999999628</v>
+        <v>2.5198543999999625</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>1.3999999999999897</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
         <v>2.41</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>1.9466570535691501E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>1.3999999999999897</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.4744999999999902</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4.99973683517968E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>1.3999999999999897</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2.3944999999999901</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.5719582155957399E-2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="4"/>
         <v>1.3999999999999897</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2.3445</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.9049796241485201E-2</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="5"/>
         <v>1.3999999999999897</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>6.3999999999999897</v>
       </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>0.27999999999999792</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.9195000000000002</v>
       </c>
@@ -9580,57 +9672,62 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>2.8928249999999625</v>
+        <v>2.8926899999999609</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>1.4999999999999902</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1">
         <v>2.8835000000000002</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>3.7455236440878399E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>1.4999999999999902</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.9799999999999902</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.9379548919900699E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>1.4999999999999902</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2.8879999999999901</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4.2870674555482602E-2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="4"/>
         <v>1.4999999999999902</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.82649999999999</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.8704483420208999E-2</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="5"/>
         <v>1.4999999999999902</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6.4999999999999902</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999799</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.3999999999999901</v>
       </c>
@@ -9639,57 +9736,62 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>3.2913919999999584</v>
+        <v>3.2912383999999588</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>1.5999999999999899</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
         <v>3.4119999999999902</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>4.7417518414944203E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>1.5999999999999899</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3.3724999999999898</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.8234043799513999E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>1.5999999999999899</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3.3570000000000002</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4.3781755392665003E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="4"/>
         <v>1.5999999999999899</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3.3014999999999901</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5.32397753959436E-2</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="5"/>
         <v>1.5999999999999899</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6.5999999999999899</v>
       </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>0.31999999999999801</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3.8885000000000001</v>
       </c>
@@ -9698,57 +9800,62 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>3.715672999999958</v>
+        <v>3.7154995999999576</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
         <v>1.6999999999999904</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
         <v>3.883</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>2.47301222675591E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>1.6999999999999904</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3.8319999999999901</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.9587774384630898E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>1.6999999999999904</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3.83699999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.05452004896008E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="4"/>
         <v>1.6999999999999904</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3.8919999999999999</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.14230569345518E-2</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="5"/>
         <v>1.6999999999999904</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6.6999999999999904</v>
       </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>0.33999999999999808</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.45</v>
       </c>
@@ -9757,57 +9864,62 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>4.1656679999999549</v>
+        <v>4.1654735999999515</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
         <v>1.7999999999999901</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2"/>
+      <c r="F21" s="1">
         <v>4.4249999999999901</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>0.187068802428692</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="2"/>
         <v>1.7999999999999901</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4.39299999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.71642179501289E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>1.7999999999999901</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4.2879999999999896</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2.6675437154213999E-2</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="4"/>
         <v>1.7999999999999901</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4.28</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>7.5253956007221401E-2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="5"/>
         <v>1.7999999999999901</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>6.7999999999999901</v>
       </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>0.35999999999999793</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.9419999999999904</v>
       </c>
@@ -9816,57 +9928,62 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>4.6413769999999497</v>
+        <v>4.6411603999999498</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
         <v>1.8999999999999897</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
         <v>4.883</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>3.7850119933064599E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>1.8999999999999897</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.7984999999999998</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6.5153664517047599E-2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>1.8999999999999897</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4.7945000000000002</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4.9040799340956898E-2</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="4"/>
         <v>1.8999999999999897</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4.7175000000000002</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4.2534815461170002E-2</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f t="shared" si="5"/>
         <v>1.8999999999999897</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>6.8999999999999897</v>
       </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>0.37999999999999795</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.4729999999999999</v>
       </c>
@@ -9875,57 +9992,62 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>5.1427999999999505</v>
+        <v>5.1425599999999489</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
         <v>1.9999999999999902</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
         <v>5.4509999999999996</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>4.9193495504995202E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>1.9999999999999902</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.4174999999999898</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.17967441313899399</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>1.9999999999999902</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5.5075000000000003</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5.5047826095993201E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="4"/>
         <v>1.9999999999999902</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>5.2645</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6.9847578415620906E-2</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="5"/>
         <v>1.9999999999999902</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>6.9999999999999902</v>
       </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999802</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6.0065</v>
       </c>
@@ -9934,57 +10056,62 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>5.6699369999999458</v>
+        <v>5.6696723999999428</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
         <v>2.0999999999999899</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2"/>
+      <c r="F24" s="1">
         <v>6.0534999999999899</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>3.2650461429801401E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="2"/>
         <v>2.0999999999999899</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.9145000000000003</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.9400106866005202E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="3"/>
         <v>2.0999999999999899</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5.8554999999999904</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9.4728142875449603E-2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="4"/>
         <v>2.0999999999999899</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>5.8540000000000001</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>7.8900336868068799E-2</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="5"/>
         <v>2.0999999999999899</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>7.0999999999999899</v>
       </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>0.41999999999999788</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6.5754999999999901</v>
       </c>
@@ -9993,57 +10120,62 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>6.2227879999999463</v>
+        <v>6.2224975999999463</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="1"/>
         <v>2.1999999999999904</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2"/>
+      <c r="F25" s="1">
         <v>6.5389999999999899</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>6.1121104977611598E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="2"/>
         <v>2.1999999999999904</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.4819999999999904</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4.13712333314879E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="3"/>
         <v>2.1999999999999904</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6.3979999999999899</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4.7195004195917198E-2</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="4"/>
         <v>2.1999999999999904</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>6.39299999999999</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>3.4351128074635397E-2</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="5"/>
         <v>2.1999999999999904</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>7.1999999999999904</v>
       </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999811</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7.1679999999999904</v>
       </c>
@@ -10052,57 +10184,62 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>6.8013529999999411</v>
+        <v>6.8010355999999401</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="1"/>
         <v>2.2999999999999901</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
         <v>7.1920000000000002</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>5.8902238363329702E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="2"/>
         <v>2.2999999999999901</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7.1039999999999903</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8.8638829557159404E-2</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="3"/>
         <v>2.2999999999999901</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>7.1699999999999902</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7.0487027548560802E-2</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="4"/>
         <v>2.2999999999999901</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>6.9870000000000001</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6.8525830704079804E-2</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="5"/>
         <v>2.2999999999999901</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>7.2999999999999901</v>
       </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>0.45999999999999797</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7.8760000000000003</v>
       </c>
@@ -10111,57 +10248,62 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>7.4056319999999376</v>
+        <v>7.4052863999999374</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="1"/>
         <v>2.3999999999999897</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2"/>
+      <c r="F27" s="1">
         <v>7.9080000000000004</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>8.4142735871850394E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="2"/>
         <v>2.3999999999999897</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.8049999999999899</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6.88629455016114E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="3"/>
         <v>2.3999999999999897</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>7.8739999999999899</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3.1689280937184303E-2</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="4"/>
         <v>2.3999999999999897</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7.6549999999999896</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3.6346287727620101E-2</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="5"/>
         <v>2.3999999999999897</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>7.3999999999999897</v>
       </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0.47999999999999798</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8.6029999999999909</v>
       </c>
@@ -10170,57 +10312,62 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>8.0356249999999374</v>
+        <v>8.0352499999999356</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
         <v>2.4999999999999902</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
         <v>8.6904999999999895</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>3.6774562146307602E-2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
         <v>2.4999999999999902</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8.4874999999999901</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4.2036951163920998E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="3"/>
         <v>2.4999999999999902</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>8.5470000000000006</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6.9969918348417495E-2</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="4"/>
         <v>2.4999999999999902</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>8.3879999999999999</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.0192365713345801E-2</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f t="shared" si="5"/>
         <v>2.4999999999999902</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>7.4999999999999902</v>
       </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>0.49999999999999806</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9.2434999999999992</v>
       </c>
@@ -10229,57 +10376,62 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>8.6913319999999334</v>
+        <v>8.6909263999999293</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="1"/>
         <v>2.5999999999999899</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1">
         <v>9.3069999999999897</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>3.8811284305903603E-2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>2.5999999999999899</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>9.0995000000000008</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.1861299801279901E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="3"/>
         <v>2.5999999999999899</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9.1639999999999908</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7.1627692380736796E-2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="4"/>
         <v>2.5999999999999899</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>9.0654999999999895</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.20793407356027099</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f t="shared" si="5"/>
         <v>2.5999999999999899</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>7.5999999999999899</v>
       </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.51999999999999791</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9.9280000000000008</v>
       </c>
@@ -10288,57 +10440,62 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>9.3727529999999337</v>
+        <v>9.3723155999999346</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="1"/>
         <v>2.6999999999999904</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
         <v>10.022</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>3.5777087639996499E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>2.6999999999999904</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>9.7840000000000007</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>7.10374252733985E-2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="3"/>
         <v>2.6999999999999904</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9.8169999999999895</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8.7545476903811204E-2</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="4"/>
         <v>2.6999999999999904</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>9.6905000000000001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5.3751376971346201E-2</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f t="shared" si="5"/>
         <v>2.6999999999999904</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>7.6999999999999904</v>
       </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>0.53999999999999815</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10.6275</v>
       </c>
@@ -10347,57 +10504,62 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>10.079887999999929</v>
+        <v>10.07941759999993</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="1"/>
         <v>2.7999999999999901</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2"/>
+      <c r="F31" s="1">
         <v>10.7349999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>6.1942248145051497E-2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>2.7999999999999901</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>10.5109999999999</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.2405303066327798E-2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="3"/>
         <v>2.7999999999999901</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>10.5169999999999</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>8.6578227480609601E-2</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>2.7999999999999901</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>10.510999999999999</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>6.1293083665803202E-2</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f t="shared" si="5"/>
         <v>2.7999999999999901</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7.7999999999999901</v>
       </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>0.55999999999999805</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11.4079999999999</v>
       </c>
@@ -10406,57 +10568,62 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>10.812736999999851</v>
+        <v>10.812232399999845</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="1"/>
         <v>2.8999999999999799</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2"/>
+      <c r="F32" s="1">
         <v>11.342000000000001</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>0.11128909721035</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>2.8999999999999799</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>11.176</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>9.4501461976995105E-2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="3"/>
         <v>2.8999999999999799</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>11.1435</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8.2159985138111805E-2</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f t="shared" si="4"/>
         <v>2.8999999999999799</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>11.2349999999999</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.120109599072986</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f t="shared" si="5"/>
         <v>2.8999999999999799</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>7.8999999999999799</v>
       </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999585</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11.952</v>
       </c>
@@ -10465,57 +10632,62 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>11.571299999999843</v>
+        <v>11.570759999999844</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="1"/>
         <v>2.9999999999999796</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2"/>
+      <c r="F33" s="1">
         <v>12.0215</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>0.146009192212429</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>2.9999999999999796</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>11.9199999999999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>8.0262726487192404E-2</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="3"/>
         <v>2.9999999999999796</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>11.766</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>7.4931547709260998E-2</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f t="shared" si="4"/>
         <v>2.9999999999999796</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11.9674999999999</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.122940935754575</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="5"/>
         <v>2.9999999999999796</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>7.9999999999999796</v>
       </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999598</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12.653</v>
       </c>
@@ -10524,57 +10696,62 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>12.355576999999842</v>
+        <v>12.35500039999984</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="1"/>
         <v>3.0999999999999801</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2"/>
+      <c r="F34" s="1">
         <v>12.7029999999999</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>0.144881076458554</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>3.0999999999999801</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>12.5625</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.222210781869258</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="3"/>
         <v>3.0999999999999801</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>12.468</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.133794815413673</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f t="shared" si="4"/>
         <v>3.0999999999999801</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>12.490500000000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.29725896914448502</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f t="shared" si="5"/>
         <v>3.0999999999999801</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>8.0999999999999801</v>
       </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>0.619999999999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13.273999999999999</v>
       </c>
@@ -10583,57 +10760,62 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>13.165567999999833</v>
+        <v>13.164953599999826</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>3.1999999999999797</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2"/>
+      <c r="F35" s="1">
         <v>13.32</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>0.13984954321284701</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>3.1999999999999797</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>13.227</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.16010194120917901</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="3"/>
         <v>3.1999999999999797</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>13.064</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>7.0814806658673193E-2</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f t="shared" si="4"/>
         <v>3.1999999999999797</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>13.126499999999901</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>7.0133331665666196E-2</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f t="shared" si="5"/>
         <v>3.1999999999999797</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>8.1999999999999797</v>
       </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0.63999999999999579</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>13.9529999999999</v>
       </c>
@@ -10642,57 +10824,62 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>14.001272999999825</v>
+        <v>14.000619599999826</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>3.2999999999999794</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2"/>
+      <c r="F36" s="1">
         <v>13.924999999999899</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>0.22328881462545699</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>3.2999999999999794</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>13.8729999999999</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.18307605552136799</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="3"/>
         <v>3.2999999999999794</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>13.686999999999999</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.29954526940189202</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f t="shared" si="4"/>
         <v>3.2999999999999794</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>13.8669999999999</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.20157537443583501</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f t="shared" si="5"/>
         <v>3.2999999999999794</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>8.2999999999999794</v>
       </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>0.65999999999999592</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>14.506</v>
       </c>
@@ -10701,72 +10888,93 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>14.862691999999832</v>
+        <v>14.86199839999983</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="1"/>
         <v>3.3999999999999808</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2"/>
+      <c r="F37" s="4">
         <v>14.585999999999901</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>0.12922440701516399</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <f t="shared" si="2"/>
         <v>3.3999999999999808</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>14.516</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.106444944998761</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="3"/>
         <v>3.3999999999999808</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>14.526499999999899</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.14027322961765801</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <f t="shared" si="4"/>
         <v>3.3999999999999808</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>14.443</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.20251315746728199</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f t="shared" si="5"/>
         <v>3.3999999999999808</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>8.3999999999999808</v>
       </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>0.67999999999999616</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="10">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8">
         <v>5</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
